--- a/参考/プロセス監視設定削除対象_to_Hybrid講座システム.xlsx
+++ b/参考/プロセス監視設定削除対象_to_Hybrid講座システム.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bcz048452\GitHub\test_term\参考\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595C5E1E-C211-4A8B-8ACC-47C7B2CD0E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B094BB-837B-4040-A0BD-95810C8081CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A9375456-4A17-45A5-A09F-63D77EAAF76E}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A9375456-4A17-45A5-A09F-63D77EAAF76E}"/>
   </bookViews>
   <sheets>
     <sheet name="tofr501v" sheetId="30" r:id="rId1"/>
@@ -9009,9 +9009,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:C240"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -10914,9 +10912,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:C240"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -12816,9 +12812,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:C240"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -14715,12 +14709,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978EAB16-6512-4CBA-8BE8-C4B0D56C0D7E}">
-  <sheetPr filterMode="1"/>
+  <sheetPr filterMode="1">
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="B2:C229"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -15068,10 +15062,10 @@
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="1">
+      <c r="B46" s="2">
         <v>44</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>222</v>
       </c>
     </row>
@@ -15132,10 +15126,10 @@
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="1">
+      <c r="B54" s="2">
         <v>52</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>223</v>
       </c>
     </row>
@@ -15196,10 +15190,10 @@
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="1">
+      <c r="B62" s="2">
         <v>60</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -16535,9 +16529,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:C241"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -18439,7 +18431,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3559A1AE-9C4D-455D-96D4-6586B8B6150B}">
-  <sheetPr filterMode="1"/>
+  <sheetPr filterMode="1">
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
   <dimension ref="B2:C228"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -18457,709 +18451,709 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="1">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="1">
-        <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="1">
-        <v>46</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="1">
-        <v>47</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="1">
-        <v>48</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>253</v>
+    <row r="3" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="1">
-        <v>49</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="1">
-        <v>50</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="1">
-        <v>52</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="1">
-        <v>53</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="1">
-        <v>54</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="1">
-        <v>55</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="1">
-        <v>56</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="1">
-        <v>57</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="1">
-        <v>58</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="1">
-        <v>60</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="1">
-        <v>61</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="1">
-        <v>62</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="1">
-        <v>63</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="1">
-        <v>64</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="1">
-        <v>65</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="1">
-        <v>66</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="1">
-        <v>68</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="1">
-        <v>69</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="1">
-        <v>70</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="1">
-        <v>71</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="1">
-        <v>72</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="1">
-        <v>73</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="1">
-        <v>74</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="1">
-        <v>80</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="1">
-        <v>81</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="1">
-        <v>83</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="1">
-        <v>84</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="1">
-        <v>86</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="1">
-        <v>87</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="1">
-        <v>89</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>232</v>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="2">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="2">
+        <v>18</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="2">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="2">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="2">
+        <v>21</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="2">
+        <v>22</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="2">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="2">
+        <v>24</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="2">
+        <v>25</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="2">
+        <v>26</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="2">
+        <v>27</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="2">
+        <v>28</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="2">
+        <v>29</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="2">
+        <v>30</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="2">
+        <v>31</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="2">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="2">
+        <v>35</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="1">
-        <v>90</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>233</v>
+      <c r="B38" s="2">
+        <v>36</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="2">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="2">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="2">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="2">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="2">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="2">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="2">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>7</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="2">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
     </row>
     <row r="48" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="2">
-        <v>10</v>
+        <v>46</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="49" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="2">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="2">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>10</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="2">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>11</v>
+        <v>254</v>
       </c>
     </row>
     <row r="52" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="2">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="53" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="2">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="2">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>14</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="2">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="2">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="2">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="2">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="2">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="2">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="2">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="2">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="2">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="64" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="2">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="2">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="2">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="2">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="2">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="2">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="2">
-        <v>32</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>30</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="1">
+        <v>68</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="2">
-        <v>33</v>
+        <v>69</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>70</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="2">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="2">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="2">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="2">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="2">
-        <v>39</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="2">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>2</v>
+        <v>259</v>
       </c>
     </row>
     <row r="84" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="2">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="2">
-        <v>75</v>
+        <v>83</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B91" s="2">
-        <v>85</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B92" s="2">
-        <v>88</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>2</v>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="1">
+        <v>89</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" s="1">
+        <v>90</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="2:3" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -20232,56 +20226,10 @@
   </sheetData>
   <autoFilter ref="B2:C228" xr:uid="{3559A1AE-9C4D-455D-96D4-6586B8B6150B}">
     <filterColumn colId="1">
-      <filters>
-        <filter val="# Example3: Apache,httpd,1,10,infra,,,"/>
-        <filter val="## Apache Process Group"/>
-        <filter val="## Tomcat Process Group"/>
-        <filter val="#Apache,/opt/s01/apache/bin/httpd -f /opt/s01/apache/conf/httpd.conf,1,151,infra,,,"/>
-        <filter val="#Apache,/opt/s01/apache/bin/rotatelogs /var/log/s01/apache/logs/s01_80_access_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="#Apache,/opt/s01/apache/bin/rotatelogs /var/log/s01/apache/logs/s01_80_audit_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="#Apache,/opt/s01/apache/bin/rotatelogs /var/log/s01/apache/logs/s01_80_error_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="#Apache,/opt/s01/apache/bin/rotatelogs /var/log/s01/apache/ssl_logs/s01_81_ssl_access_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="#Apache,/opt/s01/apache/bin/rotatelogs /var/log/s01/apache/ssl_logs/s01_81_ssl_audit_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="#Apache,/opt/s01/apache/bin/rotatelogs /var/log/s01/apache/ssl_logs/s01_81_ssl_error_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="#Tomcat,/opt/s01/apache/bin/rotatelogs /var/log/s01/tomcat/logs/catalina.out.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="#Tomcat,/opt/s01/tomcat/conf/server.xml,1,2,infra,,,"/>
-        <filter val="Apache,/opt/s02/apache/bin/httpd -f /opt/s02/apache/conf/httpd.conf,1,151,infra,,,"/>
-        <filter val="Apache,/opt/s02/apache/bin/rotatelogs /var/log/s02/apache/logs/s02_80_access_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Apache,/opt/s02/apache/bin/rotatelogs /var/log/s02/apache/logs/s02_80_audit_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Apache,/opt/s02/apache/bin/rotatelogs /var/log/s02/apache/logs/s02_80_error_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Apache,/opt/s02/apache/bin/rotatelogs /var/log/s02/apache/ssl_logs/s02_81_ssl_access_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Apache,/opt/s02/apache/bin/rotatelogs /var/log/s02/apache/ssl_logs/s02_81_ssl_audit_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Apache,/opt/s02/apache/bin/rotatelogs /var/log/s02/apache/ssl_logs/s02_81_ssl_error_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Apache,/opt/s03/apache/bin/httpd -f /opt/s03/apache/conf/httpd.conf,1,151,infra,,,"/>
-        <filter val="Apache,/opt/s03/apache/bin/rotatelogs /var/log/s03/apache/logs/s03_80_access_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Apache,/opt/s03/apache/bin/rotatelogs /var/log/s03/apache/logs/s03_80_audit_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Apache,/opt/s03/apache/bin/rotatelogs /var/log/s03/apache/logs/s03_80_error_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Apache,/opt/s03/apache/bin/rotatelogs /var/log/s03/apache/ssl_logs/s03_81_ssl_access_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Apache,/opt/s03/apache/bin/rotatelogs /var/log/s03/apache/ssl_logs/s03_81_ssl_audit_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Apache,/opt/s03/apache/bin/rotatelogs /var/log/s03/apache/ssl_logs/s03_81_ssl_error_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Apache,/opt/s04/apache/bin/httpd -f /opt/s04/apache/conf/httpd.conf,1,151,infra,,,"/>
-        <filter val="Apache,/opt/s04/apache/bin/rotatelogs /var/log/s04/apache/logs/s04_80_access_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Apache,/opt/s04/apache/bin/rotatelogs /var/log/s04/apache/logs/s04_80_audit_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Apache,/opt/s04/apache/bin/rotatelogs /var/log/s04/apache/logs/s04_80_error_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Apache,/opt/s04/apache/bin/rotatelogs /var/log/s04/apache/ssl_logs/s04_81_ssl_access_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Apache,/opt/s04/apache/bin/rotatelogs /var/log/s04/apache/ssl_logs/s04_81_ssl_audit_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Apache,/opt/s04/apache/bin/rotatelogs /var/log/s04/apache/ssl_logs/s04_81_ssl_error_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Apache,/opt/s06/apache/bin/httpd -f /opt/s06/apache/conf/httpd.conf,1,151,infra,,,"/>
-        <filter val="Apache,/opt/s06/apache/bin/rotatelogs /var/log/s06/apache/logs/s06_80_access_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Apache,/opt/s06/apache/bin/rotatelogs /var/log/s06/apache/logs/s06_80_audit_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Apache,/opt/s06/apache/bin/rotatelogs /var/log/s06/apache/logs/s06_80_error_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Apache,/opt/s06/apache/bin/rotatelogs /var/log/s06/apache/ssl_logs/s06_81_ssl_access_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Apache,/opt/s06/apache/bin/rotatelogs /var/log/s06/apache/ssl_logs/s06_81_ssl_audit_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Apache,/opt/s06/apache/bin/rotatelogs /var/log/s06/apache/ssl_logs/s06_81_ssl_error_log.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Tomcat,/opt/s02/apache/bin/rotatelogs /var/log/s02/tomcat/logs/catalina.out.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Tomcat,/opt/s02/tomcat/conf/server.xml,1,2,infra,,,"/>
-        <filter val="Tomcat,/opt/s03/apache/bin/rotatelogs /var/log/s03/tomcat/logs/catalina.out.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Tomcat,/opt/s03/tomcat/conf/server.xml,1,2,infra,,,"/>
-        <filter val="Tomcat,/opt/s04/apache/bin/rotatelogs /var/log/s04/tomcat/logs/catalina.out.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Tomcat,/opt/s04/tomcat/conf/server.xml,1,2,infra,,,"/>
-        <filter val="Tomcat,/opt/s06/apache/bin/rotatelogs /var/log/s06/tomcat/logs/catalina.out.%Y%m%d 86400 540,1,1,infra,,,"/>
-        <filter val="Tomcat,/opt/s06/tomcat/conf/server.xml,1,2,infra,,,"/>
-      </filters>
+      <customFilters>
+        <customFilter val="*httpd*"/>
+        <customFilter val="*tomcat*"/>
+      </customFilters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="2"/>
@@ -20294,14 +20242,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7E84E3-471D-492A-874A-A7F9C54B3BBC}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="86.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
